--- a/biology/Médecine/Sun_Store/Sun_Store.xlsx
+++ b/biology/Médecine/Sun_Store/Sun_Store.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sun Store est la première chaîne de pharmacies en Suisse.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sun Store a été créée en 1972 par Marcel Séverin[1]. Elle est détenue par Galenica depuis 2009 et gérée par GaleniCare[2]. En 2015, la chaine adhère à la convention de rémunération basée sur les prestations[3],[4]. L'année suivante, GaleniCare Management déplace son siège social de Saint-Sulpice à Berne ce qui amène des protestations de salariés[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sun Store a été créée en 1972 par Marcel Séverin. Elle est détenue par Galenica depuis 2009 et gérée par GaleniCare. En 2015, la chaine adhère à la convention de rémunération basée sur les prestations,. L'année suivante, GaleniCare Management déplace son siège social de Saint-Sulpice à Berne ce qui amène des protestations de salariés.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Réseau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, Sun Store est composé de plus de près de 90 succursales. 80 d'entre elles se trouvent en Suisse romande et 6 au Tessin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, Sun Store est composé de plus de près de 90 succursales. 80 d'entre elles se trouvent en Suisse romande et 6 au Tessin.
 </t>
         </is>
       </c>
